--- a/biology/Microbiologie/Filozoa/Filozoa.xlsx
+++ b/biology/Microbiologie/Filozoa/Filozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Filozoa (Filozoaires) sont un clade monophylétique comportant les animaux, les choanomonades et les filastériens, ces derniers ayant donné leur nom à ce taxon[1]. Ils forment le groupe frère des mésomycétozoaires au sein des Holozoaires. Ils comportent les animaux et tous les organismes unicellulaires plus proches des animaux que de tout autre organisme pluricellulaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Filozoa (Filozoaires) sont un clade monophylétique comportant les animaux, les choanomonades et les filastériens, ces derniers ayant donné leur nom à ce taxon. Ils forment le groupe frère des mésomycétozoaires au sein des Holozoaires. Ils comportent les animaux et tous les organismes unicellulaires plus proches des animaux que de tout autre organisme pluricellulaire.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On pense que l'ancêtre des opisthocontes possédait des filaments vermiformes, ressemblant à des tentacules. Ces filaments ont été perdus chez les holomycètes et les mésomycétozoaires. Ils ont été conservés chez les filozoaires, chez qui ils sont simples et non-effilés. Ces filaments possèdent de plus un noyau formé de paquets d'actine. Ils se transforment, chez les choanomonades et chez les choanocytes des éponges, en "collerettes" entourant la flagelle.
 </t>
@@ -542,7 +556,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>clade des Filozoa
 classe des Filasterea
@@ -592,6 +608,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -617,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Kamran Shalchian-Tabrizi, Marianne A. Minge, Mari Espelund, Russell Orr, Torgeir Ruden, Kjetill S. Jakobsen et Thomas Cavalier-Smith, « Multigene Phylogeny of Choanozoa and the Origin of Animals », PLOS One, PLoS, vol. 3, no 5,‎ 2008, e2098 (ISSN 1932-6203, OCLC 228234657, PMID 18461162, PMCID 2346548, DOI 10.1371/JOURNAL.PONE.0002098, lire en ligne)</t>
         </is>
